--- a/Output/TABLE_P1b.xlsx
+++ b/Output/TABLE_P1b.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>L</t>
   </si>
@@ -99,7 +99,7 @@
     <t>StDev_Diff</t>
   </si>
   <si>
-    <t>Sector 29</t>
+    <t>Sector 13</t>
   </si>
   <si>
     <t xml:space="preserve"> Number of employees </t>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Real value added </t>
-  </si>
-  <si>
-    <t>Sector 13</t>
   </si>
 </sst>
 </file>
@@ -166,7 +163,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -192,22 +189,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>106.08981001727116</v>
+        <v>132.92127965492452</v>
       </c>
       <c r="C2">
-        <v>117.23352713178295</v>
+        <v>147.71975601491019</v>
       </c>
       <c r="D2">
-        <v>1054.9036947690886</v>
+        <v>1008.9617118503314</v>
       </c>
       <c r="E2">
-        <v>845.11639056310491</v>
+        <v>1063.504916237069</v>
       </c>
       <c r="F2">
-        <v>-11.143717114511787</v>
+        <v>-14.798476359985671</v>
       </c>
       <c r="G2">
-        <v>41.171673316952997</v>
+        <v>27.413990712196949</v>
       </c>
     </row>
     <row r="3">
@@ -215,22 +212,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>51886.297177964247</v>
+        <v>71848.445929923197</v>
       </c>
       <c r="C3">
-        <v>42093.114053144862</v>
+        <v>58150.946746828689</v>
       </c>
       <c r="D3">
-        <v>815496.1914573838</v>
+        <v>1087504.9305938559</v>
       </c>
       <c r="E3">
-        <v>637960.08323259384</v>
+        <v>759169.99574361613</v>
       </c>
       <c r="F3">
-        <v>9793.1831248193848</v>
+        <v>13697.499183094507</v>
       </c>
       <c r="G3">
-        <v>31573.066122714539</v>
+        <v>24673.161334857159</v>
       </c>
     </row>
     <row r="4">
@@ -238,22 +235,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3218.4206641530564</v>
+        <v>3178.5482154052174</v>
       </c>
       <c r="C4">
-        <v>2971.6896928280821</v>
+        <v>3074.7134027941652</v>
       </c>
       <c r="D4">
-        <v>38624.134098571842</v>
+        <v>28886.462084369377</v>
       </c>
       <c r="E4">
-        <v>31644.906058286884</v>
+        <v>25037.785176689635</v>
       </c>
       <c r="F4">
-        <v>246.73097132497423</v>
+        <v>103.83481261105226</v>
       </c>
       <c r="G4">
-        <v>1517.307031159283</v>
+        <v>708.84694584384204</v>
       </c>
     </row>
     <row r="5">
@@ -261,22 +258,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>36239.264283070836</v>
+        <v>46754.904746624074</v>
       </c>
       <c r="C5">
-        <v>32775.917458201024</v>
+        <v>46125.585812180259</v>
       </c>
       <c r="D5">
-        <v>604852.18125147198</v>
+        <v>724089.21607989911</v>
       </c>
       <c r="E5">
-        <v>559054.1203955923</v>
+        <v>647590.91457900731</v>
       </c>
       <c r="F5">
-        <v>3463.3468248698118</v>
+        <v>629.31893444381421</v>
       </c>
       <c r="G5">
-        <v>25267.640206433789</v>
+        <v>18308.404903139359</v>
       </c>
     </row>
     <row r="6">
@@ -284,27 +281,27 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>14610.174671229399</v>
+        <v>19456.589893134285</v>
       </c>
       <c r="C6">
-        <v>11981.933740890256</v>
+        <v>18257.890227933472</v>
       </c>
       <c r="D6">
-        <v>153807.40983497529</v>
+        <v>249812.66980913674</v>
       </c>
       <c r="E6">
-        <v>108844.18436135496</v>
+        <v>227306.12426804498</v>
       </c>
       <c r="F6">
-        <v>2628.2409303391432</v>
+        <v>1198.6996652008129</v>
       </c>
       <c r="G6">
-        <v>5893.1460614853677</v>
+        <v>6443.892666909439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -330,22 +327,22 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>21.795637884672843</v>
+        <v>20.112409479921002</v>
       </c>
       <c r="C9">
-        <v>27.402790697674419</v>
+        <v>23.872162485065711</v>
       </c>
       <c r="D9">
-        <v>46.408565975576956</v>
+        <v>41.511698434113832</v>
       </c>
       <c r="E9">
-        <v>58.84816590112824</v>
+        <v>49.059182334552915</v>
       </c>
       <c r="F9">
-        <v>-5.6071528130015764</v>
+        <v>-3.7597530051447094</v>
       </c>
       <c r="G9">
-        <v>1.3048059299907111</v>
+        <v>0.80837371229434918</v>
       </c>
     </row>
     <row r="10">
@@ -353,22 +350,22 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>4240.5177447263095</v>
+        <v>3708.0696605941039</v>
       </c>
       <c r="C10">
-        <v>5164.5521969193433</v>
+        <v>3975.713398269937</v>
       </c>
       <c r="D10">
-        <v>12012.200151100704</v>
+        <v>11230.372591117222</v>
       </c>
       <c r="E10">
-        <v>11836.293976948939</v>
+        <v>10107.992072367198</v>
       </c>
       <c r="F10">
-        <v>-924.03445219303376</v>
+        <v>-267.64373767583311</v>
       </c>
       <c r="G10">
-        <v>294.22390845350992</v>
+        <v>189.1118745961534</v>
       </c>
     </row>
     <row r="11">
@@ -376,22 +373,22 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>397.93831019595831</v>
+        <v>344.35838964046087</v>
       </c>
       <c r="C11">
-        <v>559.6127534014629</v>
+        <v>429.38602486757401</v>
       </c>
       <c r="D11">
-        <v>1928.7520663133844</v>
+        <v>1593.1220013942445</v>
       </c>
       <c r="E11">
-        <v>1993.7820574885916</v>
+        <v>1612.6354098410256</v>
       </c>
       <c r="F11">
-        <v>-161.67444320550459</v>
+        <v>-85.027635227113137</v>
       </c>
       <c r="G11">
-        <v>48.148677562708912</v>
+        <v>28.113523705476979</v>
       </c>
     </row>
     <row r="12">
@@ -399,22 +396,22 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>1786.403625759516</v>
+        <v>1648.972774003666</v>
       </c>
       <c r="C12">
-        <v>2492.2069140193134</v>
+        <v>2055.0905018921512</v>
       </c>
       <c r="D12">
-        <v>6530.8591786377001</v>
+        <v>6164.5965267078182</v>
       </c>
       <c r="E12">
-        <v>6656.7635073765041</v>
+        <v>6271.8004843207045</v>
       </c>
       <c r="F12">
-        <v>-705.80328825979745</v>
+        <v>-406.11772788848521</v>
       </c>
       <c r="G12">
-        <v>164.336463361233</v>
+        <v>111.7965765741109</v>
       </c>
     </row>
     <row r="13">
@@ -422,22 +419,22 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>2407.4311375251527</v>
+        <v>2017.4392632041686</v>
       </c>
       <c r="C13">
-        <v>2797.1205799869172</v>
+        <v>2104.7503877541872</v>
       </c>
       <c r="D13">
-        <v>5784.9321556612913</v>
+        <v>5258.8515317592301</v>
       </c>
       <c r="E13">
-        <v>6071.2004786355892</v>
+        <v>4983.3053038042881</v>
       </c>
       <c r="F13">
-        <v>-389.68944246176443</v>
+        <v>-87.311124550018576</v>
       </c>
       <c r="G13">
-        <v>149.57001346620751</v>
+        <v>93.291310057966655</v>
       </c>
     </row>
   </sheetData>

--- a/Output/TABLE_P1b.xlsx
+++ b/Output/TABLE_P1b.xlsx
@@ -189,22 +189,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>132.92127965492452</v>
+        <v>106.08981001727116</v>
       </c>
       <c r="C2">
-        <v>147.71975601491019</v>
+        <v>117.23352713178295</v>
       </c>
       <c r="D2">
-        <v>1008.9617118503314</v>
+        <v>1054.9036947690886</v>
       </c>
       <c r="E2">
-        <v>1063.504916237069</v>
+        <v>845.11639056310491</v>
       </c>
       <c r="F2">
-        <v>-14.798476359985671</v>
+        <v>-11.143717114511787</v>
       </c>
       <c r="G2">
-        <v>27.413990712196949</v>
+        <v>41.171673316952997</v>
       </c>
     </row>
     <row r="3">
@@ -212,22 +212,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>71848.445929923197</v>
+        <v>51886.297177964247</v>
       </c>
       <c r="C3">
-        <v>58150.946746828689</v>
+        <v>42093.114053144862</v>
       </c>
       <c r="D3">
-        <v>1087504.9305938559</v>
+        <v>815496.1914573838</v>
       </c>
       <c r="E3">
-        <v>759169.99574361613</v>
+        <v>637960.08323259384</v>
       </c>
       <c r="F3">
-        <v>13697.499183094507</v>
+        <v>9793.1831248193848</v>
       </c>
       <c r="G3">
-        <v>24673.161334857159</v>
+        <v>31573.066122714539</v>
       </c>
     </row>
     <row r="4">
@@ -235,22 +235,22 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3178.5482154052174</v>
+        <v>3218.4206641530564</v>
       </c>
       <c r="C4">
-        <v>3074.7134027941652</v>
+        <v>2971.6896928280821</v>
       </c>
       <c r="D4">
-        <v>28886.462084369377</v>
+        <v>38624.134098571842</v>
       </c>
       <c r="E4">
-        <v>25037.785176689635</v>
+        <v>31644.906058286884</v>
       </c>
       <c r="F4">
-        <v>103.83481261105226</v>
+        <v>246.73097132497423</v>
       </c>
       <c r="G4">
-        <v>708.84694584384204</v>
+        <v>1517.307031159283</v>
       </c>
     </row>
     <row r="5">
@@ -258,22 +258,22 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>46754.904746624074</v>
+        <v>36239.264283070836</v>
       </c>
       <c r="C5">
-        <v>46125.585812180259</v>
+        <v>32775.917458201024</v>
       </c>
       <c r="D5">
-        <v>724089.21607989911</v>
+        <v>604852.18125147198</v>
       </c>
       <c r="E5">
-        <v>647590.91457900731</v>
+        <v>559054.1203955923</v>
       </c>
       <c r="F5">
-        <v>629.31893444381421</v>
+        <v>3463.3468248698118</v>
       </c>
       <c r="G5">
-        <v>18308.404903139359</v>
+        <v>25267.640206433789</v>
       </c>
     </row>
     <row r="6">
@@ -281,22 +281,22 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>19456.589893134285</v>
+        <v>14610.174671229399</v>
       </c>
       <c r="C6">
-        <v>18257.890227933472</v>
+        <v>11981.933740890256</v>
       </c>
       <c r="D6">
-        <v>249812.66980913674</v>
+        <v>153807.40983497529</v>
       </c>
       <c r="E6">
-        <v>227306.12426804498</v>
+        <v>108844.18436135496</v>
       </c>
       <c r="F6">
-        <v>1198.6996652008129</v>
+        <v>2628.2409303391432</v>
       </c>
       <c r="G6">
-        <v>6443.892666909439</v>
+        <v>5893.1460614853677</v>
       </c>
     </row>
     <row r="8">
@@ -327,22 +327,22 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>20.112409479921002</v>
+        <v>21.795637884672843</v>
       </c>
       <c r="C9">
-        <v>23.872162485065711</v>
+        <v>27.402790697674419</v>
       </c>
       <c r="D9">
-        <v>41.511698434113832</v>
+        <v>46.408565975576956</v>
       </c>
       <c r="E9">
-        <v>49.059182334552915</v>
+        <v>58.84816590112824</v>
       </c>
       <c r="F9">
-        <v>-3.7597530051447094</v>
+        <v>-5.6071528130015764</v>
       </c>
       <c r="G9">
-        <v>0.80837371229434918</v>
+        <v>1.3048059299907111</v>
       </c>
     </row>
     <row r="10">
@@ -350,22 +350,22 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>3708.0696605941039</v>
+        <v>4240.5177447263095</v>
       </c>
       <c r="C10">
-        <v>3975.713398269937</v>
+        <v>5164.5521969193433</v>
       </c>
       <c r="D10">
-        <v>11230.372591117222</v>
+        <v>12012.200151100704</v>
       </c>
       <c r="E10">
-        <v>10107.992072367198</v>
+        <v>11836.293976948939</v>
       </c>
       <c r="F10">
-        <v>-267.64373767583311</v>
+        <v>-924.03445219303376</v>
       </c>
       <c r="G10">
-        <v>189.1118745961534</v>
+        <v>294.22390845350992</v>
       </c>
     </row>
     <row r="11">
@@ -373,22 +373,22 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>344.35838964046087</v>
+        <v>397.93831019595831</v>
       </c>
       <c r="C11">
-        <v>429.38602486757401</v>
+        <v>559.6127534014629</v>
       </c>
       <c r="D11">
-        <v>1593.1220013942445</v>
+        <v>1928.7520663133844</v>
       </c>
       <c r="E11">
-        <v>1612.6354098410256</v>
+        <v>1993.7820574885916</v>
       </c>
       <c r="F11">
-        <v>-85.027635227113137</v>
+        <v>-161.67444320550459</v>
       </c>
       <c r="G11">
-        <v>28.113523705476979</v>
+        <v>48.148677562708912</v>
       </c>
     </row>
     <row r="12">
@@ -396,22 +396,22 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>1648.972774003666</v>
+        <v>1786.403625759516</v>
       </c>
       <c r="C12">
-        <v>2055.0905018921512</v>
+        <v>2492.2069140193134</v>
       </c>
       <c r="D12">
-        <v>6164.5965267078182</v>
+        <v>6530.8591786377001</v>
       </c>
       <c r="E12">
-        <v>6271.8004843207045</v>
+        <v>6656.7635073765041</v>
       </c>
       <c r="F12">
-        <v>-406.11772788848521</v>
+        <v>-705.80328825979745</v>
       </c>
       <c r="G12">
-        <v>111.7965765741109</v>
+        <v>164.336463361233</v>
       </c>
     </row>
     <row r="13">
@@ -419,22 +419,22 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>2017.4392632041686</v>
+        <v>2407.4311375251527</v>
       </c>
       <c r="C13">
-        <v>2104.7503877541872</v>
+        <v>2797.1205799869172</v>
       </c>
       <c r="D13">
-        <v>5258.8515317592301</v>
+        <v>5784.9321556612913</v>
       </c>
       <c r="E13">
-        <v>4983.3053038042881</v>
+        <v>6071.2004786355892</v>
       </c>
       <c r="F13">
-        <v>-87.311124550018576</v>
+        <v>-389.68944246176443</v>
       </c>
       <c r="G13">
-        <v>93.291310057966655</v>
+        <v>149.57001346620751</v>
       </c>
     </row>
   </sheetData>
